--- a/xlsx/加州大学哈斯汀法学院_intext.xlsx
+++ b/xlsx/加州大学哈斯汀法学院_intext.xlsx
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
+    <t>加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學河濱分校</t>
+    <t>加州大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥加利福尼亞大學</t>
+    <t>圣地牙哥加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%97%A7%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UC_Davis_Medical_Center</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E5%88%A9%E7%A6%8F%E6%91%A9%E7%88%BE%E5%9C%8B%E5%AE%B6%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>勞倫斯利福摩爾國家實驗室</t>
+    <t>劳伦斯利福摩尔国家实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%AF%E9%98%BF%E6%8B%89%E8%8E%AB%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%85%8B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱克天文台</t>
+    <t>凯克天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%8B%E5%A4%A9%E6%96%87%E5%8F%B0</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州藝術學院</t>
+    <t>加州艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
